--- a/10. Others/Diary_And_Reports/Agenda's/Agenda_Week_2.xlsx
+++ b/10. Others/Diary_And_Reports/Agenda's/Agenda_Week_2.xlsx
@@ -912,7 +912,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1530,18 +1530,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1560,17 +1560,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56D4A539-5E71-46A4-A076-A8448D6640BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7EC78C7E-41AD-4518-BFAA-0ABA4B09AB48}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>